--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,31 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EFE78DCB88B97B5438AE04D0433D3F3EF14D2C68" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+  </si>
+  <si>
+    <t>Electricity Source</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
+  </si>
   <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
@@ -33,101 +71,59 @@
     <t>RQSD RPS Qualifying Source Definitions</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>BAU RPS-Qualifying Sources</t>
-  </si>
-  <si>
-    <t>California Energy Commission</t>
-  </si>
-  <si>
-    <t>Renewables Portfolio Standard Eligibility Seventh Edition Commission Guidebook</t>
-  </si>
-  <si>
-    <t>http://www.energy.ca.gov/2013publications/CEC-300-2013-005/CEC-300-2013-005-ED7-CMF.pdf</t>
-  </si>
-  <si>
-    <t>Page 8, Table 1</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
-  </si>
-  <si>
-    <t>differences between states.  Here, we use California (the most populous state)</t>
-  </si>
-  <si>
-    <t>as our model.</t>
-  </si>
-  <si>
-    <t>Certain types of small hydro and efficiency upgrades to existing hydro qualify, but</t>
-  </si>
-  <si>
-    <t>large, new hydro plants do not, so we treat hydro as non-qualifying.</t>
-  </si>
-  <si>
-    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
-  </si>
-  <si>
-    <t>model user.  The example we include uses the same RPS-qualifying definitions as the BAU case, except</t>
-  </si>
-  <si>
-    <t>biomass is no longer considered an RPS-qualifying resource.</t>
-  </si>
-  <si>
-    <t>Electricity Source</t>
-  </si>
-  <si>
-    <t>Qualifies for RPS</t>
+    <t>lignite</t>
   </si>
   <si>
     <t>hard coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
     <t>onshore wind</t>
   </si>
   <si>
-    <t>solar PV</t>
-  </si>
-  <si>
-    <t>solar thermal</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>petroleum</t>
-  </si>
-  <si>
-    <t>natural gas peaker</t>
-  </si>
-  <si>
-    <t>lignite</t>
-  </si>
-  <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>differences between states.  Here, we use a "clean energy standard"</t>
+  </si>
+  <si>
+    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
+  </si>
+  <si>
+    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
+  </si>
+  <si>
+    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>local air quality impacts and land use challenges.</t>
+  </si>
+  <si>
+    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
+  </si>
+  <si>
+    <t>see notes</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Qualifies for RPS (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,18 +148,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,17 +169,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -284,23 +271,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,23 +306,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,242 +481,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.45">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.45">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.45">
-      <c r="A21" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -772,133 +728,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -907,24 +887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1158,14 +1120,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD62902-0CF7-4D96-91FF-AA3A6B40EF02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FE87FC-4133-407A-90CE-06DA3474AA89}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A6A2F8-3AF3-4451-957F-9DFAE2EFFDBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7104FBFA-72A2-4E72-A8ED-41CF55B4B951}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C218DC-1EDB-4B0C-AB23-7D4398FCA7FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE71B65-CA22-4EA6-9E9E-C21134B5F626}"/>
 </file>